--- a/Test/xlsx/2.xlsx
+++ b/Test/xlsx/2.xlsx
@@ -102,145 +102,145 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" wrapText="true"/>
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
   </cellXfs>
 </styleSheet>
@@ -253,6 +253,17 @@
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="17.0" customWidth="true"/>
+    <col min="13" max="13" width="17.0" customWidth="true"/>
+    <col min="2" max="2" width="17.0" customWidth="true"/>
+    <col min="3" max="3" width="17.0" customWidth="true"/>
+    <col min="4" max="4" width="17.0" customWidth="true"/>
+    <col min="5" max="5" width="29.0" customWidth="true"/>
+    <col min="6" max="6" width="17.0" customWidth="true"/>
+    <col min="7" max="7" width="17.0" customWidth="true"/>
+    <col min="9" max="9" width="17.0" customWidth="true"/>
+  </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true">
       <c r="A1" s="2" t="s">

--- a/Test/xlsx/2.xlsx
+++ b/Test/xlsx/2.xlsx
@@ -112,13 +112,266 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="60">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
     </font>
   </fonts>
   <fills count="6">
@@ -130,22 +383,22 @@
     </fill>
     <fill>
       <patternFill patternType="none">
-        <bgColor indexed="64"/>
+        <fgColor indexed="12"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="12"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="none">
-        <bgColor indexed="13"/>
+        <fgColor indexed="17"/>
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="none">
-        <bgColor indexed="12"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <bgColor indexed="17"/>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
       </patternFill>
     </fill>
   </fills>
@@ -163,182 +416,182 @@
   </cellStyleXfs>
   <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyFill="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyFill="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
 </styleSheet>

--- a/Test/xlsx/2.xlsx
+++ b/Test/xlsx/2.xlsx
@@ -179,87 +179,70 @@
     <font>
       <name val="Times New Roman"/>
       <sz val="16.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="16.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="16.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="16.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="16.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="16.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="16.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="16.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="16.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="16.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="16.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="16.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="16.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="16.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="16.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="16.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <sz val="16.0"/>
-      <b val="true"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <sz val="16.0"/>
     </font>
     <font>
       <name val="Times New Roman"/>
@@ -414,10 +397,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true">
+      <alignment wrapText="true"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true">
+      <alignment wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="left" vertical="center"/>
@@ -425,39 +414,66 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true">
+      <alignment wrapText="true"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true">
+      <alignment wrapText="true"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true">
+      <alignment wrapText="true"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true">
+      <alignment wrapText="true"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true">
+      <alignment wrapText="true"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true">
+      <alignment wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true">
+      <alignment wrapText="true"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true">
+      <alignment wrapText="true"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true">
+      <alignment wrapText="true"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -473,45 +489,54 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true">
+      <alignment wrapText="true"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true">
+      <alignment wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true">
+      <alignment wrapText="true"/>
+    </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -527,6 +552,9 @@
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true">
+      <alignment wrapText="true"/>
+    </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -542,9 +570,15 @@
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true">
+      <alignment wrapText="true"/>
+    </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true">
+      <alignment wrapText="true"/>
+    </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -568,6 +602,9 @@
     </xf>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true">
+      <alignment wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
       <alignment horizontal="left" vertical="center"/>
@@ -620,216 +657,216 @@
     <col min="12" max="12" width="17.0" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="M2" s="3" t="s">
+    <row r="1" s="1" customFormat="true">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" s="3" customFormat="true">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="M3" s="5" t="s">
+    <row r="3" s="6" customFormat="true">
+      <c r="A3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="M3" s="8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="M4" s="7" t="s">
+    <row r="4" s="9" customFormat="true">
+      <c r="A4" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="M4" s="11" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="M5" s="9" t="s">
+    <row r="5" s="12" customFormat="true">
+      <c r="A5" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="M5" s="14" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="11" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="12" t="s">
+    <row r="6" s="15" customFormat="true">
+      <c r="A6" s="16" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" s="17" customFormat="true">
+      <c r="A7" s="18" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" s="19" customFormat="true">
+      <c r="A8" s="20" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="13" t="s">
+    <row r="9" s="21" customFormat="true">
+      <c r="A9" s="22" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="14" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="15" t="s">
+    <row r="10" s="23" customFormat="true">
+      <c r="A10" s="24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" s="25" customFormat="true">
+      <c r="A11" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="E11" s="30" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="20" t="s">
+    <row r="12" s="31" customFormat="true">
+      <c r="A12" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="24" t="s">
+      <c r="E12" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="25" t="s">
+      <c r="F12" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="G12" s="26" t="s">
+      <c r="G12" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="H12" s="27" t="s">
+      <c r="H12" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="I12" s="28" t="s">
+      <c r="I12" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="29" t="s">
+      <c r="J12" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="K12" s="30" t="s">
+      <c r="K12" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="L12" s="31" t="s">
+      <c r="L12" s="43" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="32" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="D14" s="36" t="s">
+    <row r="13" s="44" customFormat="true">
+      <c r="A13" s="45" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" s="46" customFormat="true">
+      <c r="A14" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="37" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="D15" s="41" t="s">
+      <c r="E14" s="51" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" s="52" customFormat="true">
+      <c r="A15" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="42" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="43" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="D17" s="47" t="s">
+      <c r="E15" s="57" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" s="58" customFormat="true">
+      <c r="A16" s="59" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" s="60" customFormat="true">
+      <c r="A17" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="E17" s="48" t="s">
+      <c r="E17" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="F17" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="G17" s="50" t="s">
+      <c r="F17" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="G17" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="I17" s="51" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" s="53" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="54" t="s">
-        <v>0</v>
-      </c>
-      <c r="D18" s="55" t="s">
+      <c r="I17" s="68" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" s="69" customFormat="true">
+      <c r="A18" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="E18" s="56" t="s">
+      <c r="E18" s="74" t="s">
         <v>27</v>
       </c>
-      <c r="F18" s="57" t="s">
-        <v>0</v>
-      </c>
-      <c r="G18" s="58" t="s">
+      <c r="F18" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="G18" s="76" t="s">
         <v>30</v>
       </c>
-      <c r="I18" s="59" t="s">
+      <c r="I18" s="77" t="s">
         <v>0</v>
       </c>
     </row>

--- a/Test/xlsx/2.xlsx
+++ b/Test/xlsx/2.xlsx
@@ -1137,412 +1137,412 @@
   </cellStyleXfs>
   <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="true" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="true" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="true" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="true" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="true" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="true" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="true" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="true" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="true" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="true" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="true" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="true" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="true" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="94" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="95" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="94" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="true" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="103" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="104" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyFill="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="106" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="107" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="109" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="110" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="97" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="3" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="107" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="109" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="110" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="true" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="112" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="113" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="115" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="116" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="118" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="119" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyFill="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="121" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="122" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="124" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="125" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="112" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="118" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="119" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="121" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="122" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="124" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="true" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="127" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="128" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="127" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="128" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="true" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="130" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="131" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="133" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="134" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="136" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="137" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="139" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="140" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="142" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="143" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="145" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="146" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="148" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="149" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="151" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="130" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="131" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="133" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="134" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="136" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="137" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="139" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="140" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="143" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="145" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="146" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="148" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="149" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="151" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="true" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="154" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="155" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="157" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="158" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="160" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="161" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="163" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="164" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="166" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="167" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="169" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="170" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="172" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="173" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="175" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="176" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true">
+    <xf numFmtId="0" fontId="154" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="155" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="158" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="160" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="161" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="163" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="164" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="166" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="167" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="169" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="170" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="172" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="173" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="175" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="176" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
